--- a/agents/SBV/SBV-Data-Contents.xlsx
+++ b/agents/SBV/SBV-Data-Contents.xlsx
@@ -51,16 +51,16 @@
     <t xml:space="preserve">sub-title</t>
   </si>
   <si>
-    <t xml:space="preserve">Based on official disease reports to the OIE</t>
+    <t xml:space="preserve">Based on official disease reports to the WOAH</t>
   </si>
   <si>
     <t xml:space="preserve">text</t>
   </si>
   <si>
-    <t xml:space="preserve">Schmallenberg disease is listed in the World Organisation for Animal Health ({ref005:OIE}) Terrestrial Animal Health Code. The map to the right displays occurrence reported to the {ref001:OIE-WAHIS} system since 2005.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As described in the OIE {ref005:Terrestrial Animal Health Code}, the OIE early warning system includes immediate notifications and follow-up reports on:</t>
+    <t xml:space="preserve">Schmallenberg disease is listed in the World Organisation for Animal Health ({ref005:WOAH}) Terrestrial Animal Health Code. The map to the right displays occurrence reported to the {ref001:WOAH-WAHIS} system since 2005.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As described in the WOAH {ref005:Terrestrial Animal Health Code}, the WOAH early warning system includes immediate notifications and follow-up reports on:</t>
   </si>
   <si>
     <t xml:space="preserve">list</t>
@@ -84,7 +84,7 @@
     <t xml:space="preserve">Occurrence of a listed disease in an unusual host species.</t>
   </si>
   <si>
-    <t xml:space="preserve">Information on stable situations (disease present or absent in a zone or country) is provided by countries through the OIE monitoring system, which is a different reporting channel. This information is available in a different spatial and temporal scale, which can be browsed on the map independently from the outbreak notification points.</t>
+    <t xml:space="preserve">Information on stable situations (disease present or absent in a zone or country) is provided by countries through the WOAH monitoring system, which is a different reporting channel. This information is available in a different spatial and temporal scale, which can be browsed on the map independently from the outbreak notification points.</t>
   </si>
   <si>
     <t xml:space="preserve">annotation</t>
@@ -96,7 +96,7 @@
     <t xml:space="preserve">date</t>
   </si>
   <si>
-    <t xml:space="preserve">For more up to date reports, visit the original data source: {ref001:OIE-WAHIS}.</t>
+    <t xml:space="preserve">For more up to date reports, visit the original data source: {ref001:WOAH-WAHIS}.</t>
   </si>
   <si>
     <t xml:space="preserve">map</t>
@@ -246,7 +246,7 @@
     <t xml:space="preserve">Diagnosis</t>
   </si>
   <si>
-    <t xml:space="preserve">Diagnosis of Bunyaviral diseases are described in a dedicated chapter of the {ref010:OIE Terrestrial Manual}.</t>
+    <t xml:space="preserve">Diagnosis of Bunyaviral diseases are described in a dedicated chapter of the {ref010:WOAH Terrestrial Manual}.</t>
   </si>
   <si>
     <t xml:space="preserve">EFSA conducts regular systematic literature reviews covering peer-reviewed literature in English since 1970, covering diagnostic tests approved for use in the European Union (EU). </t>
@@ -438,7 +438,7 @@
     <t xml:space="preserve">The CoVetLab consortium has been responsible for the systematic literature reviews since 2015, and has delivered story maps to EFSA since 2021. Partners are: Swedish National Veterinary Institute (SVA, Sweden); Wageningen Bioveterinary Research (WBVR, The Netherlands); Animal and Plant Health Agency (APHA; UK) and the University of Surrey (UK). </t>
   </si>
   <si>
-    <t xml:space="preserve">Geographical distribution data has been kindly provided by the World Organisation of Animal Health (OIE). {ref001:OIE-WAHIS} (OIE World Animal Health Information System) is the original source of these data.</t>
+    <t xml:space="preserve">Geographical distribution data has been kindly provided by the World Organisation of Animal Health (WOAH). {ref001:WOAH-WAHIS} (WOAH World Animal Health Information System) is the original source of these data.</t>
   </si>
   <si>
     <t xml:space="preserve">EFSA thanks the following experts for their specific contribution to this story map:</t>
@@ -489,7 +489,7 @@
     <t xml:space="preserve">ref001</t>
   </si>
   <si>
-    <t xml:space="preserve">OIE-WAHIS (OIE World Animal Health Information System)</t>
+    <t xml:space="preserve">WOAH-WAHIS (WOAH World Animal Health Information System)</t>
   </si>
   <si>
     <t xml:space="preserve">https://wahis.oie.int/</t>
@@ -516,7 +516,7 @@
     <t xml:space="preserve">ref005</t>
   </si>
   <si>
-    <t xml:space="preserve">OIE (World Organisation for Animal Health). Terrestrial Animal Health Code 2021. OIE, Paris, France</t>
+    <t xml:space="preserve">WOAH (World Organisation for Animal Health). Terrestrial Animal Health Code 2021. WOAH, Paris, France</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.oie.int/en/what-we-do/standards/codes-and-manuals/terrestrial-code-online-access/?id=169&amp;L=0&amp;htmfile=chapitre_notification.htm</t>
@@ -549,7 +549,7 @@
     <t xml:space="preserve">ref010</t>
   </si>
   <si>
-    <t xml:space="preserve">OIE (World Organisation for Animal Health), 2021. Bunyaviral diseases. Chapter 3.7.6. OIE Terrestrial Manual, Paris, France</t>
+    <t xml:space="preserve">WOAH (World Organisation for Animal Health), 2021. Bunyaviral diseases. Chapter 3.7.6. WOAH Terrestrial Manual, Paris, France</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.oie.int/fileadmin/Home/eng/Health_standards/tahm/3.10.01_BUNYAVIRAL_DISEASES.pdf</t>

--- a/agents/SBV/SBV-Data-Contents.xlsx
+++ b/agents/SBV/SBV-Data-Contents.xlsx
@@ -126,7 +126,7 @@
     <t xml:space="preserve">You can download all data collected through systematic literature review {ref011:here}. Data fields are explained in this {ref012:read-me file}.</t>
   </si>
   <si>
-    <t xml:space="preserve">The review was last updated in January 2021. The complete list of references is available for download {ref013:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
+    <t xml:space="preserve">The review was last updated in January 2022. The complete list of references is available for download {ref013:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
   </si>
   <si>
     <t xml:space="preserve">Disease</t>
@@ -165,7 +165,7 @@
     <t xml:space="preserve">You can download all data collected through systematic literature review {ref014:here}. Data fields are explained in this {ref015:read-me file}.</t>
   </si>
   <si>
-    <t xml:space="preserve">*The review was last updated in January 2021. The complete list of references is available for download {ref016:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
+    <t xml:space="preserve">*The review was last updated in January 2022. The complete list of references is available for download {ref016:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
   </si>
   <si>
     <t xml:space="preserve">Public Health</t>
@@ -177,7 +177,7 @@
     <t xml:space="preserve">HTML file</t>
   </si>
   <si>
-    <t xml:space="preserve">Impact-SBV.html</t>
+    <t xml:space="preserve">ExperimentalInfections-SBV.html</t>
   </si>
   <si>
     <t xml:space="preserve">Agent</t>
@@ -216,7 +216,7 @@
     <t xml:space="preserve">You can download all data collected through systematic literature review {ref017:here}. Data fields are explained in this {ref018:read-me file}.</t>
   </si>
   <si>
-    <t xml:space="preserve">*The review was last updated in January 2021. The complete list of references is available for download {ref019:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
+    <t xml:space="preserve">*The review was last updated in January 2022. The complete list of references is available for download {ref019:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
   </si>
   <si>
     <t xml:space="preserve">Survival-SBV.html</t>
@@ -273,7 +273,7 @@
     <t xml:space="preserve">You can download all data collected through systematic literature review {ref020:here}. Data fields are explained in this {ref021:read-me file}.</t>
   </si>
   <si>
-    <t xml:space="preserve">The review was last updated in January 2021. The complete list of references is available for download {ref022:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
+    <t xml:space="preserve">The review was last updated in January 2022. The complete list of references is available for download {ref022:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
   </si>
   <si>
     <t xml:space="preserve">Diagnostic-SBV.html</t>

--- a/agents/SBV/SBV-Data-Contents.xlsx
+++ b/agents/SBV/SBV-Data-Contents.xlsx
@@ -219,7 +219,7 @@
     <t xml:space="preserve">*The review was last updated in January 2022. The complete list of references is available for download {ref019:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
   </si>
   <si>
-    <t xml:space="preserve">Survival-SBV.html</t>
+    <t xml:space="preserve">PathogenSurvival-SBV.html</t>
   </si>
   <si>
     <t xml:space="preserve">Transmission</t>

--- a/agents/SBV/SBV-Data-Contents.xlsx
+++ b/agents/SBV/SBV-Data-Contents.xlsx
@@ -354,7 +354,7 @@
     <t xml:space="preserve">EFSA conducts regular systematic literature reviews (SLR) covering all vaccine efficacy studies  published in peer-reviewed literature in English since 1970, when evaluating vaccines approved for use in the European Union. </t>
   </si>
   <si>
-    <t xml:space="preserve">No vaccine efficacy studies meeting the eligibility criteria were found up until the  latest SLR.  The next update is planned for 2022.</t>
+    <t xml:space="preserve">No vaccine efficacy studies meeting the eligibility criteria were found up until the  latest SLR.  The next update is planned for 2023.</t>
   </si>
   <si>
     <t xml:space="preserve">You can download all data collected through systematic literature review {ref023:here}, for pathogens which have available vaccines. Data fields are explained in this {ref024:read-me file}.</t>

--- a/agents/SBV/SBV-Data-Contents.xlsx
+++ b/agents/SBV/SBV-Data-Contents.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\DiseaseProfiles\agents\SBV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fernanda.dorea\Documents\Azure\storymaps\agents\SBV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEABE066-D930-465B-A4D6-C5C9D35E24B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10245E6A-1CDD-4602-A268-0695A25DF18E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3650" yWindow="6480" windowWidth="7230" windowHeight="3980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -1162,13 +1162,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E155"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="C133" sqref="C133:D133"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1253,7 +1253,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13</v>
       </c>
@@ -1440,7 +1440,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>15</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3</v>
       </c>
@@ -1525,7 +1525,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>4</v>
       </c>
@@ -1542,7 +1542,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>5</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>6</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>7</v>
       </c>
@@ -1593,7 +1593,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>8</v>
       </c>
@@ -1610,7 +1610,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>9</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>10</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>2</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>3</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>4</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>5</v>
       </c>
@@ -1729,7 +1729,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>6</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>7</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>8</v>
       </c>
@@ -1780,7 +1780,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>1</v>
       </c>
@@ -1797,7 +1797,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>2</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>3</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>4</v>
       </c>
@@ -1848,7 +1848,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>5</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>6</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>7</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>8</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>9</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>10</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>11</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>12</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>13</v>
       </c>
@@ -2001,7 +2001,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>14</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>15</v>
       </c>
@@ -2035,7 +2035,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2</v>
       </c>
@@ -2069,7 +2069,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>3</v>
       </c>
@@ -2086,7 +2086,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>4</v>
       </c>
@@ -2103,7 +2103,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>5</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>6</v>
       </c>
@@ -2137,7 +2137,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>7</v>
       </c>
@@ -2154,7 +2154,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>8</v>
       </c>
@@ -2171,7 +2171,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>9</v>
       </c>
@@ -2188,7 +2188,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>10</v>
       </c>
@@ -2205,7 +2205,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>11</v>
       </c>
@@ -2222,7 +2222,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>12</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>13</v>
       </c>
@@ -2256,7 +2256,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>14</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>15</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1</v>
       </c>
@@ -2307,7 +2307,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>3</v>
       </c>
@@ -2341,7 +2341,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>4</v>
       </c>
@@ -2358,7 +2358,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>5</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>6</v>
       </c>
@@ -2392,7 +2392,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>7</v>
       </c>
@@ -2409,7 +2409,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>8</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>9</v>
       </c>
@@ -2443,7 +2443,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>10</v>
       </c>
@@ -2460,7 +2460,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>11</v>
       </c>
@@ -2477,7 +2477,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>3</v>
       </c>
@@ -2528,7 +2528,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>4</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>5</v>
       </c>
@@ -2562,7 +2562,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>6</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>7</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>8</v>
       </c>
@@ -2613,7 +2613,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>9</v>
       </c>
@@ -2630,7 +2630,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>10</v>
       </c>
@@ -2647,7 +2647,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>11</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>12</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1</v>
       </c>
@@ -2698,7 +2698,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2</v>
       </c>
@@ -2715,7 +2715,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>3</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>4</v>
       </c>
@@ -2749,7 +2749,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>5</v>
       </c>
@@ -2766,7 +2766,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>6</v>
       </c>
@@ -2783,7 +2783,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>7</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>8</v>
       </c>
@@ -2817,7 +2817,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>9</v>
       </c>
@@ -2834,7 +2834,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>10</v>
       </c>
@@ -2851,7 +2851,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>11</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>12</v>
       </c>
@@ -2885,7 +2885,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>13</v>
       </c>
@@ -2902,7 +2902,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1</v>
       </c>
@@ -2919,7 +2919,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>2</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>3</v>
       </c>
@@ -2953,7 +2953,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>4</v>
       </c>
@@ -2970,7 +2970,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>5</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>6</v>
       </c>
@@ -3004,7 +3004,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>7</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>8</v>
       </c>
@@ -3038,7 +3038,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>9</v>
       </c>
@@ -3055,7 +3055,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>10</v>
       </c>
@@ -3072,7 +3072,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>1</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>2</v>
       </c>
@@ -3106,7 +3106,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>3</v>
       </c>
@@ -3123,7 +3123,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>4</v>
       </c>
@@ -3140,7 +3140,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>5</v>
       </c>
@@ -3157,7 +3157,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>6</v>
       </c>
@@ -3174,7 +3174,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>7</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>8</v>
       </c>
@@ -3208,7 +3208,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>1</v>
       </c>
@@ -3225,7 +3225,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>2</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>3</v>
       </c>
@@ -3259,7 +3259,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>4</v>
       </c>
@@ -3276,7 +3276,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>5</v>
       </c>
@@ -3293,7 +3293,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>6</v>
       </c>
@@ -3310,7 +3310,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>7</v>
       </c>
@@ -3327,7 +3327,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>8</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>9</v>
       </c>
@@ -3361,7 +3361,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>10</v>
       </c>
@@ -3378,7 +3378,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>11</v>
       </c>
@@ -3395,7 +3395,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>12</v>
       </c>
@@ -3412,7 +3412,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>13</v>
       </c>
@@ -3420,16 +3420,16 @@
         <v>11</v>
       </c>
       <c r="C133">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="E133" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>1</v>
       </c>
@@ -3446,7 +3446,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>2</v>
       </c>
@@ -3463,7 +3463,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>1</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>2</v>
       </c>
@@ -3497,7 +3497,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>3</v>
       </c>
@@ -3514,7 +3514,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>4</v>
       </c>
@@ -3531,7 +3531,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>5</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>1</v>
       </c>
@@ -3565,7 +3565,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>2</v>
       </c>
@@ -3582,7 +3582,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>3</v>
       </c>
@@ -3599,7 +3599,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>4</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>5</v>
       </c>
@@ -3633,7 +3633,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>1</v>
       </c>
@@ -3650,7 +3650,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>2</v>
       </c>
@@ -3667,7 +3667,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>3</v>
       </c>
@@ -3684,7 +3684,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>4</v>
       </c>
@@ -3701,7 +3701,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>5</v>
       </c>
@@ -3718,7 +3718,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>6</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>7</v>
       </c>
@@ -3752,7 +3752,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>8</v>
       </c>
@@ -3769,7 +3769,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>9</v>
       </c>
@@ -3786,7 +3786,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>10</v>
       </c>
@@ -3815,9 +3815,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3831,7 +3831,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>157</v>
       </c>
@@ -3845,7 +3845,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>160</v>
       </c>
@@ -3859,7 +3859,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>163</v>
       </c>
@@ -3873,7 +3873,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>166</v>
       </c>
@@ -3887,7 +3887,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>169</v>
       </c>
@@ -3901,7 +3901,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>172</v>
       </c>
@@ -3915,7 +3915,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>175</v>
       </c>
@@ -3923,7 +3923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>176</v>
       </c>
@@ -3931,7 +3931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>177</v>
       </c>
@@ -3945,7 +3945,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>180</v>
       </c>
@@ -3959,7 +3959,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>183</v>
       </c>
@@ -3973,7 +3973,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>186</v>
       </c>
@@ -3987,7 +3987,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>189</v>
       </c>
@@ -4001,7 +4001,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>192</v>
       </c>
@@ -4015,7 +4015,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>195</v>
       </c>
@@ -4029,7 +4029,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>198</v>
       </c>
@@ -4043,7 +4043,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>201</v>
       </c>
@@ -4057,7 +4057,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>204</v>
       </c>
@@ -4071,7 +4071,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>207</v>
       </c>
@@ -4085,7 +4085,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>210</v>
       </c>
@@ -4099,7 +4099,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>213</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>216</v>
       </c>
@@ -4127,7 +4127,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>219</v>
       </c>
@@ -4141,7 +4141,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>222</v>
       </c>
@@ -4155,7 +4155,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>225</v>
       </c>
@@ -4169,7 +4169,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>228</v>
       </c>
@@ -4183,7 +4183,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>231</v>
       </c>
@@ -4197,7 +4197,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>234</v>
       </c>
@@ -4211,7 +4211,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>237</v>
       </c>
@@ -4225,7 +4225,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>240</v>
       </c>
@@ -4239,7 +4239,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>243</v>
       </c>
@@ -4253,7 +4253,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>246</v>
       </c>
@@ -4267,7 +4267,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>249</v>
       </c>
@@ -4281,7 +4281,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>252</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>255</v>
       </c>
